--- a/backend/table54.xlsx
+++ b/backend/table54.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Всероссийский</t>
   </si>
@@ -28,13 +28,7 @@
     <t>Призовых мест</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Отсутствие соревновательной составляющей</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -435,19 +429,13 @@
         <v>4</v>
       </c>
       <c r="D2"/>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3"/>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
